--- a/ZipCodeMedHousingPrice.xlsx
+++ b/ZipCodeMedHousingPrice.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>LAT</t>
   </si>
   <si>
     <t>LNG</t>
+  </si>
+  <si>
+    <t>housingPriceScore</t>
   </si>
   <si>
     <t>medSalePPSF</t>
@@ -725,13 +728,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,10 +747,13 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>40.580328</v>
@@ -755,16 +761,16 @@
       <c r="C2">
         <v>-79.955241</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>144</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>79922.08</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>40.60364</v>
@@ -772,16 +778,16 @@
       <c r="C3">
         <v>-80.216424</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>65</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>28272.22</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>40.64508</v>
@@ -789,16 +795,16 @@
       <c r="C4">
         <v>-80.18664800000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>118</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>59658.33</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>40.63359</v>
@@ -806,16 +812,16 @@
       <c r="C5">
         <v>-79.87688900000001</v>
       </c>
-      <c r="D5">
-        <v>33</v>
-      </c>
       <c r="E5">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>40.652282</v>
@@ -823,16 +829,16 @@
       <c r="C6">
         <v>-79.93168799999999</v>
       </c>
-      <c r="D6">
-        <v>33</v>
-      </c>
       <c r="E6">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>40.32135</v>
@@ -840,16 +846,16 @@
       <c r="C7">
         <v>-80.036546</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>129</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>63438.75</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>40.608072</v>
@@ -857,16 +863,16 @@
       <c r="C8">
         <v>-79.74042799999999</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>48</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>26425</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>40.403883</v>
@@ -874,16 +880,16 @@
       <c r="C9">
         <v>-79.862605</v>
       </c>
-      <c r="D9">
-        <v>33</v>
-      </c>
       <c r="E9">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F9">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>40.637248</v>
@@ -891,16 +897,16 @@
       <c r="C10">
         <v>-80.081101</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>158</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>104162.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>40.342274</v>
@@ -908,16 +914,16 @@
       <c r="C11">
         <v>-80.122354</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>125</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>67602.08</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>40.265885</v>
@@ -925,16 +931,16 @@
       <c r="C12">
         <v>-79.797067</v>
       </c>
-      <c r="D12">
-        <v>33</v>
-      </c>
       <c r="E12">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>40.233411</v>
@@ -942,16 +948,16 @@
       <c r="C13">
         <v>-79.95029599999999</v>
       </c>
-      <c r="D13">
-        <v>33</v>
-      </c>
       <c r="E13">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F13">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>40.41012</v>
@@ -959,16 +965,16 @@
       <c r="C14">
         <v>-80.11420200000001</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>106</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>55177.78</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>40.58497</v>
@@ -976,16 +982,16 @@
       <c r="C15">
         <v>-79.84731499999999</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>114</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>63505.56</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>40.297812</v>
@@ -993,16 +999,16 @@
       <c r="C16">
         <v>-79.92327299999999</v>
       </c>
-      <c r="D16">
-        <v>33</v>
-      </c>
       <c r="E16">
+        <v>33</v>
+      </c>
+      <c r="F16">
         <v>53279.17</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>40.504991</v>
@@ -1010,16 +1016,16 @@
       <c r="C17">
         <v>-80.35394599999999</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>128</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>69575</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>40.500472</v>
@@ -1027,16 +1033,16 @@
       <c r="C18">
         <v>-80.201802</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>128</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>61174</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>40.311313</v>
@@ -1044,16 +1050,16 @@
       <c r="C19">
         <v>-79.78955999999999</v>
       </c>
-      <c r="D19">
-        <v>33</v>
-      </c>
       <c r="E19">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F19">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>40.591655</v>
@@ -1061,16 +1067,16 @@
       <c r="C20">
         <v>-79.78250300000001</v>
       </c>
-      <c r="D20">
-        <v>33</v>
-      </c>
       <c r="E20">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F20">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>40.555697</v>
@@ -1078,16 +1084,16 @@
       <c r="C21">
         <v>-80.228607</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>113</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>59066.67</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>40.348224</v>
@@ -1095,16 +1101,16 @@
       <c r="C22">
         <v>-80.161151</v>
       </c>
-      <c r="D22">
-        <v>33</v>
-      </c>
       <c r="E22">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F22">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>40.350816</v>
@@ -1112,16 +1118,16 @@
       <c r="C23">
         <v>-79.890602</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>55</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>23233.33</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>40.373461</v>
@@ -1129,16 +1135,16 @@
       <c r="C24">
         <v>-79.850162</v>
       </c>
-      <c r="D24">
-        <v>33</v>
-      </c>
       <c r="E24">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>40.384822</v>
@@ -1146,16 +1152,16 @@
       <c r="C25">
         <v>-79.807401</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>49</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>26000</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>40.404484</v>
@@ -1163,16 +1169,16 @@
       <c r="C26">
         <v>-79.837706</v>
       </c>
-      <c r="D26">
-        <v>33</v>
-      </c>
       <c r="E26">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F26">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>40.258036</v>
@@ -1180,16 +1186,16 @@
       <c r="C27">
         <v>-79.85259000000001</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>92</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>44986.11</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>40.240216</v>
@@ -1197,16 +1203,16 @@
       <c r="C28">
         <v>-79.99347299999999</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>112</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>58208.33</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>40.637986</v>
@@ -1214,16 +1220,16 @@
       <c r="C29">
         <v>-79.94790399999999</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>146</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>95474.58</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>40.325814</v>
@@ -1231,16 +1237,16 @@
       <c r="C30">
         <v>-79.88598500000001</v>
       </c>
-      <c r="D30">
-        <v>33</v>
-      </c>
       <c r="E30">
+        <v>33</v>
+      </c>
+      <c r="F30">
         <v>17800</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>40.526032</v>
@@ -1248,16 +1254,16 @@
       <c r="C31">
         <v>-79.932225</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>136</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>68308.75</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>40.315621</v>
@@ -1265,16 +1271,16 @@
       <c r="C32">
         <v>-79.79384400000001</v>
       </c>
-      <c r="D32">
-        <v>33</v>
-      </c>
       <c r="E32">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F32">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>40.556113</v>
@@ -1282,16 +1288,16 @@
       <c r="C33">
         <v>-79.80557399999999</v>
       </c>
-      <c r="D33">
-        <v>33</v>
-      </c>
       <c r="E33">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F33">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>40.395872</v>
@@ -1299,16 +1305,16 @@
       <c r="C34">
         <v>-79.907511</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>62</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>27695.83</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>40.462479</v>
@@ -1316,16 +1322,16 @@
       <c r="C35">
         <v>-80.28444500000001</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>119</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>61794.44</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>40.562602</v>
@@ -1333,16 +1339,16 @@
       <c r="C36">
         <v>-79.866913</v>
       </c>
-      <c r="D36">
-        <v>33</v>
-      </c>
       <c r="E36">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F36">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>40.318382</v>
@@ -1350,16 +1356,16 @@
       <c r="C37">
         <v>-79.723736</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>130</v>
       </c>
-      <c r="E37">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>40.56389</v>
@@ -1367,16 +1373,16 @@
       <c r="C38">
         <v>-80.216015</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>91</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>39558.33</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>40.702748</v>
@@ -1384,16 +1390,16 @@
       <c r="C39">
         <v>-80.023906</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>161</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>110845.83</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>40.358656</v>
@@ -1401,16 +1407,16 @@
       <c r="C40">
         <v>-80.243904</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>121</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>61511.11</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>40.46348</v>
@@ -1418,16 +1424,16 @@
       <c r="C41">
         <v>-80.106172</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>91</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>57262.5</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>40.338791</v>
@@ -1435,16 +1441,16 @@
       <c r="C42">
         <v>-79.796071</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>78</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>39241.67</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>40.339767</v>
@@ -1452,16 +1458,16 @@
       <c r="C43">
         <v>-79.842782</v>
       </c>
-      <c r="D43">
-        <v>33</v>
-      </c>
       <c r="E43">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F43">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>40.326747</v>
@@ -1469,16 +1475,16 @@
       <c r="C44">
         <v>-79.866547</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>60</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>24541.67</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>40.310836</v>
@@ -1486,16 +1492,16 @@
       <c r="C45">
         <v>-79.812893</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>87</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>45697.22</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>40.191166</v>
@@ -1503,16 +1509,16 @@
       <c r="C46">
         <v>-79.922476</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>78</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>37002.78</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>40.426328</v>
@@ -1520,16 +1526,16 @@
       <c r="C47">
         <v>-79.761358</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>100</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>49097.08</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>40.356339</v>
@@ -1537,16 +1543,16 @@
       <c r="C48">
         <v>-80.149929</v>
       </c>
-      <c r="D48">
-        <v>33</v>
-      </c>
       <c r="E48">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F48">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>40.460564</v>
@@ -1554,16 +1560,16 @@
       <c r="C49">
         <v>-79.67000899999999</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>136</v>
       </c>
-      <c r="E49">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>40.644035</v>
@@ -1571,16 +1577,16 @@
       <c r="C50">
         <v>-79.72537800000001</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>75</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>39705.56</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>40.557191</v>
@@ -1588,16 +1594,16 @@
       <c r="C51">
         <v>-79.725802</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>101</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>59697.22</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>40.375736</v>
@@ -1605,16 +1611,16 @@
       <c r="C52">
         <v>-79.80876499999999</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>67</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>28388.89</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>40.412105</v>
@@ -1622,16 +1628,16 @@
       <c r="C53">
         <v>-80.187799</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>126</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>66097.22</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>40.522823</v>
@@ -1639,16 +1645,16 @@
       <c r="C54">
         <v>-79.83625499999999</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>130</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>74425</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>40.407779</v>
@@ -1656,16 +1662,16 @@
       <c r="C55">
         <v>-79.77634399999999</v>
       </c>
-      <c r="D55">
-        <v>33</v>
-      </c>
       <c r="E55">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F55">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>40.47441</v>
@@ -1673,16 +1679,16 @@
       <c r="C56">
         <v>-79.950968</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>150</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>70116.67</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>40.504968</v>
@@ -1690,16 +1696,16 @@
       <c r="C57">
         <v>-80.067821</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>93</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>49763</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>40.426207</v>
@@ -1707,16 +1713,16 @@
       <c r="C58">
         <v>-79.975672</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>123</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>89577.08</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>40.456867</v>
@@ -1724,16 +1730,16 @@
       <c r="C59">
         <v>-80.06063</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>41</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>27400</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>40.438093</v>
@@ -1741,16 +1747,16 @@
       <c r="C60">
         <v>-80.09909</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>98</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>58274</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>40.472272</v>
@@ -1758,16 +1764,16 @@
       <c r="C61">
         <v>-79.913156</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>138</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>96910.42</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>40.403792</v>
@@ -1775,16 +1781,16 @@
       <c r="C62">
         <v>-79.928873</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>78</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>31070.83</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>40.453191</v>
@@ -1792,16 +1798,16 @@
       <c r="C63">
         <v>-79.899497</v>
       </c>
-      <c r="D63">
-        <v>33</v>
-      </c>
       <c r="E63">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F63">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>40.498847</v>
@@ -1809,16 +1815,16 @@
       <c r="C64">
         <v>-79.96972599999999</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>119</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>67589.58</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>40.406951</v>
@@ -1826,16 +1832,16 @@
       <c r="C65">
         <v>-79.984987</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>37</v>
       </c>
-      <c r="E65">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
         <v>40.430322</v>
@@ -1843,16 +1849,16 @@
       <c r="C66">
         <v>-80.01563299999999</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>94</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>75577.78</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
         <v>40.456939</v>
@@ -1860,16 +1866,16 @@
       <c r="C67">
         <v>-79.990054</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>65</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>36826.11</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
         <v>40.444042</v>
@@ -1877,16 +1883,16 @@
       <c r="C68">
         <v>-79.955247</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>139</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>95372.67</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
         <v>40.486557</v>
@@ -1894,16 +1900,16 @@
       <c r="C69">
         <v>-80.013953</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>79</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>41202.78</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>40.501295</v>
@@ -1911,16 +1917,16 @@
       <c r="C70">
         <v>-79.912677</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>146</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>90125.42</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
         <v>40.402626</v>
@@ -1928,16 +1934,16 @@
       <c r="C71">
         <v>-80.03484899999999</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>104</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>55074.67</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
         <v>40.430821</v>
@@ -1945,16 +1951,16 @@
       <c r="C72">
         <v>-79.920089</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>184</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>115662.08</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
         <v>40.42361</v>
@@ -1962,16 +1968,16 @@
       <c r="C73">
         <v>-79.889803</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>101</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>50994.17</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
         <v>40.443184</v>
@@ -1979,16 +1985,16 @@
       <c r="C74">
         <v>-79.983064</v>
       </c>
-      <c r="D74">
-        <v>33</v>
-      </c>
       <c r="E74">
+        <v>33</v>
+      </c>
+      <c r="F74">
         <v>128400</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
         <v>40.419506</v>
@@ -1996,16 +2002,16 @@
       <c r="C75">
         <v>-80.047768</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>121</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>59925</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>40.435791</v>
@@ -2013,16 +2019,16 @@
       <c r="C76">
         <v>-79.86427</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>66</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>33275</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
         <v>40.447691</v>
@@ -2030,16 +2036,16 @@
       <c r="C77">
         <v>-79.99344499999999</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>260</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>244900</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
         <v>40.505181</v>
@@ -2047,16 +2053,16 @@
       <c r="C78">
         <v>-79.952226</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>103</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>47977.78</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
         <v>40.464234</v>
@@ -2064,16 +2070,16 @@
       <c r="C79">
         <v>-79.944805</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>130</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>58635</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
         <v>40.50668</v>
@@ -2081,16 +2087,16 @@
       <c r="C80">
         <v>-80.113844</v>
       </c>
-      <c r="D80">
-        <v>33</v>
-      </c>
       <c r="E80">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F80">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
         <v>40.395053</v>
@@ -2098,16 +2104,16 @@
       <c r="C81">
         <v>-80.013952</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>101</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>47375</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
         <v>40.375703</v>
@@ -2115,16 +2121,16 @@
       <c r="C82">
         <v>-79.970572</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>104</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>48133.33</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
         <v>40.370667</v>
@@ -2132,16 +2138,16 @@
       <c r="C83">
         <v>-80.044135</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>161</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>97137.5</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>40.520353</v>
@@ -2149,16 +2155,16 @@
       <c r="C84">
         <v>-80.037053</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>120</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>60133.33</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
         <v>40.452517</v>
@@ -2166,16 +2172,16 @@
       <c r="C85">
         <v>-79.931939</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>219</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>153656.67</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
         <v>40.460862</v>
@@ -2183,16 +2189,16 @@
       <c r="C86">
         <v>-80.03491699999999</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>90</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>49533.33</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
         <v>40.36814</v>
@@ -2200,16 +2206,16 @@
       <c r="C87">
         <v>-80.01779500000001</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>122</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>54033.33</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
         <v>40.459801</v>
@@ -2217,16 +2223,16 @@
       <c r="C88">
         <v>-79.82241999999999</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>73</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>39078</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>40.347404</v>
@@ -2234,16 +2240,16 @@
       <c r="C89">
         <v>-79.975481</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>125</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>58405.42</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <v>40.549607</v>
@@ -2251,16 +2257,16 @@
       <c r="C90">
         <v>-80.043513</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>143</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>76149.67</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
         <v>40.537201</v>
@@ -2268,16 +2274,16 @@
       <c r="C91">
         <v>-79.87944299999999</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>161</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>118141.25</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
         <v>40.483674</v>
@@ -2285,16 +2291,16 @@
       <c r="C92">
         <v>-79.738074</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>110</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>54425</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
         <v>40.333518</v>
@@ -2302,16 +2308,16 @@
       <c r="C93">
         <v>-80.081412</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>145</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>89504.17</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
         <v>40.375511</v>
@@ -2319,16 +2325,16 @@
       <c r="C94">
         <v>-80.072372</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>153</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>88862.92</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
         <v>40.443915</v>
@@ -2336,16 +2342,16 @@
       <c r="C95">
         <v>-79.953256</v>
       </c>
-      <c r="D95">
-        <v>33</v>
-      </c>
       <c r="E95">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F95">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>40.457329</v>
@@ -2353,16 +2359,16 @@
       <c r="C96">
         <v>-80.019294</v>
       </c>
-      <c r="D96">
-        <v>33</v>
-      </c>
       <c r="E96">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F96">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>40.382059</v>
@@ -2370,16 +2376,16 @@
       <c r="C97">
         <v>-80.11868200000001</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>170</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>149816.67</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
         <v>40.586037</v>
@@ -2387,16 +2393,16 @@
       <c r="C98">
         <v>-79.826914</v>
       </c>
-      <c r="D98">
-        <v>33</v>
-      </c>
       <c r="E98">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F98">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>40.607346</v>
@@ -2404,16 +2410,16 @@
       <c r="C99">
         <v>-79.83466799999999</v>
       </c>
-      <c r="D99">
-        <v>33</v>
-      </c>
       <c r="E99">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F99">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>40.716859</v>
@@ -2421,16 +2427,16 @@
       <c r="C100">
         <v>-79.749717</v>
       </c>
-      <c r="D100">
-        <v>33</v>
-      </c>
       <c r="E100">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F100">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>40.565935</v>
@@ -2438,16 +2444,16 @@
       <c r="C101">
         <v>-80.1464</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>159</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>115510</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>40.293248</v>
@@ -2455,16 +2461,16 @@
       <c r="C102">
         <v>-79.996037</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>124</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>61930.56</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>40.548049</v>
@@ -2472,16 +2478,16 @@
       <c r="C103">
         <v>-79.777952</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>77</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>37536.11</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>40.377841</v>
@@ -2489,16 +2495,16 @@
       <c r="C104">
         <v>-80.21291600000001</v>
       </c>
-      <c r="D104">
-        <v>33</v>
-      </c>
       <c r="E104">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F104">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B105">
         <v>40.62859</v>
@@ -2506,16 +2512,16 @@
       <c r="C105">
         <v>-79.803264</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>67</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>34255.56</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B106">
         <v>40.385735</v>
@@ -2523,16 +2529,16 @@
       <c r="C106">
         <v>-79.722251</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>122</v>
       </c>
-      <c r="E106">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B107">
         <v>40.41528</v>
@@ -2540,16 +2546,16 @@
       <c r="C107">
         <v>-79.82408599999999</v>
       </c>
-      <c r="D107">
-        <v>33</v>
-      </c>
       <c r="E107">
+        <v>33</v>
+      </c>
+      <c r="F107">
         <v>18200</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B108">
         <v>40.707082</v>
@@ -2557,16 +2563,16 @@
       <c r="C108">
         <v>-79.927088</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>128</v>
       </c>
-      <c r="E108">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B109">
         <v>40.497284</v>
@@ -2574,16 +2580,16 @@
       <c r="C109">
         <v>-79.83077</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>76</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>34883.33</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B110">
         <v>40.674947</v>
@@ -2591,16 +2597,16 @@
       <c r="C110">
         <v>-80.106364</v>
       </c>
-      <c r="D110">
-        <v>33</v>
-      </c>
       <c r="E110">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F110">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B111">
         <v>40.272147</v>
@@ -2608,16 +2614,16 @@
       <c r="C111">
         <v>-79.89618</v>
       </c>
-      <c r="D111">
-        <v>33</v>
-      </c>
       <c r="E111">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F111">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B112">
         <v>40.361206</v>
@@ -2625,16 +2631,16 @@
       <c r="C112">
         <v>-79.895641</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>82</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>38525</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B113">
         <v>40.225233</v>
@@ -2642,16 +2648,16 @@
       <c r="C113">
         <v>-79.748806</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>104</v>
       </c>
-      <c r="E113">
-        <v>17666.67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113">
+        <v>17666.67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B114">
         <v>40.625015</v>
@@ -2659,16 +2665,16 @@
       <c r="C114">
         <v>-80.067058</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>153</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>103765.42</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B115">
         <v>40.393451</v>
@@ -2676,10 +2682,10 @@
       <c r="C115">
         <v>-79.79512</v>
       </c>
-      <c r="D115">
-        <v>33</v>
-      </c>
       <c r="E115">
+        <v>33</v>
+      </c>
+      <c r="F115">
         <v>17666.67</v>
       </c>
     </row>

--- a/ZipCodeMedHousingPrice.xlsx
+++ b/ZipCodeMedHousingPrice.xlsx
@@ -761,6 +761,9 @@
       <c r="C2">
         <v>-79.955241</v>
       </c>
+      <c r="D2">
+        <v>2.8</v>
+      </c>
       <c r="E2">
         <v>144</v>
       </c>
@@ -778,6 +781,9 @@
       <c r="C3">
         <v>-80.216424</v>
       </c>
+      <c r="D3">
+        <v>1.2</v>
+      </c>
       <c r="E3">
         <v>65</v>
       </c>
@@ -795,6 +801,9 @@
       <c r="C4">
         <v>-80.18664800000001</v>
       </c>
+      <c r="D4">
+        <v>2.3</v>
+      </c>
       <c r="E4">
         <v>118</v>
       </c>
@@ -812,6 +821,9 @@
       <c r="C5">
         <v>-79.87688900000001</v>
       </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
       <c r="E5">
         <v>33</v>
       </c>
@@ -829,6 +841,9 @@
       <c r="C6">
         <v>-79.93168799999999</v>
       </c>
+      <c r="D6">
+        <v>0.6</v>
+      </c>
       <c r="E6">
         <v>33</v>
       </c>
@@ -846,6 +861,9 @@
       <c r="C7">
         <v>-80.036546</v>
       </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
       <c r="E7">
         <v>129</v>
       </c>
@@ -863,6 +881,9 @@
       <c r="C8">
         <v>-79.74042799999999</v>
       </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
       <c r="E8">
         <v>48</v>
       </c>
@@ -880,6 +901,9 @@
       <c r="C9">
         <v>-79.862605</v>
       </c>
+      <c r="D9">
+        <v>0.6</v>
+      </c>
       <c r="E9">
         <v>33</v>
       </c>
@@ -897,6 +921,9 @@
       <c r="C10">
         <v>-80.081101</v>
       </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
       <c r="E10">
         <v>158</v>
       </c>
@@ -914,6 +941,9 @@
       <c r="C11">
         <v>-80.122354</v>
       </c>
+      <c r="D11">
+        <v>2.4</v>
+      </c>
       <c r="E11">
         <v>125</v>
       </c>
@@ -931,6 +961,9 @@
       <c r="C12">
         <v>-79.797067</v>
       </c>
+      <c r="D12">
+        <v>0.6</v>
+      </c>
       <c r="E12">
         <v>33</v>
       </c>
@@ -948,6 +981,9 @@
       <c r="C13">
         <v>-79.95029599999999</v>
       </c>
+      <c r="D13">
+        <v>0.6</v>
+      </c>
       <c r="E13">
         <v>33</v>
       </c>
@@ -965,6 +1001,9 @@
       <c r="C14">
         <v>-80.11420200000001</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
       <c r="E14">
         <v>106</v>
       </c>
@@ -982,6 +1021,9 @@
       <c r="C15">
         <v>-79.84731499999999</v>
       </c>
+      <c r="D15">
+        <v>2.2</v>
+      </c>
       <c r="E15">
         <v>114</v>
       </c>
@@ -999,6 +1041,9 @@
       <c r="C16">
         <v>-79.92327299999999</v>
       </c>
+      <c r="D16">
+        <v>0.6</v>
+      </c>
       <c r="E16">
         <v>33</v>
       </c>
@@ -1016,6 +1061,9 @@
       <c r="C17">
         <v>-80.35394599999999</v>
       </c>
+      <c r="D17">
+        <v>2.5</v>
+      </c>
       <c r="E17">
         <v>128</v>
       </c>
@@ -1033,6 +1081,9 @@
       <c r="C18">
         <v>-80.201802</v>
       </c>
+      <c r="D18">
+        <v>2.5</v>
+      </c>
       <c r="E18">
         <v>128</v>
       </c>
@@ -1050,6 +1101,9 @@
       <c r="C19">
         <v>-79.78955999999999</v>
       </c>
+      <c r="D19">
+        <v>0.6</v>
+      </c>
       <c r="E19">
         <v>33</v>
       </c>
@@ -1067,6 +1121,9 @@
       <c r="C20">
         <v>-79.78250300000001</v>
       </c>
+      <c r="D20">
+        <v>0.6</v>
+      </c>
       <c r="E20">
         <v>33</v>
       </c>
@@ -1084,6 +1141,9 @@
       <c r="C21">
         <v>-80.228607</v>
       </c>
+      <c r="D21">
+        <v>2.2</v>
+      </c>
       <c r="E21">
         <v>113</v>
       </c>
@@ -1101,6 +1161,9 @@
       <c r="C22">
         <v>-80.161151</v>
       </c>
+      <c r="D22">
+        <v>0.6</v>
+      </c>
       <c r="E22">
         <v>33</v>
       </c>
@@ -1118,6 +1181,9 @@
       <c r="C23">
         <v>-79.890602</v>
       </c>
+      <c r="D23">
+        <v>1.1</v>
+      </c>
       <c r="E23">
         <v>55</v>
       </c>
@@ -1135,6 +1201,9 @@
       <c r="C24">
         <v>-79.850162</v>
       </c>
+      <c r="D24">
+        <v>0.6</v>
+      </c>
       <c r="E24">
         <v>33</v>
       </c>
@@ -1152,6 +1221,9 @@
       <c r="C25">
         <v>-79.807401</v>
       </c>
+      <c r="D25">
+        <v>0.9</v>
+      </c>
       <c r="E25">
         <v>49</v>
       </c>
@@ -1169,6 +1241,9 @@
       <c r="C26">
         <v>-79.837706</v>
       </c>
+      <c r="D26">
+        <v>0.6</v>
+      </c>
       <c r="E26">
         <v>33</v>
       </c>
@@ -1186,6 +1261,9 @@
       <c r="C27">
         <v>-79.85259000000001</v>
       </c>
+      <c r="D27">
+        <v>1.8</v>
+      </c>
       <c r="E27">
         <v>92</v>
       </c>
@@ -1203,6 +1281,9 @@
       <c r="C28">
         <v>-79.99347299999999</v>
       </c>
+      <c r="D28">
+        <v>2.2</v>
+      </c>
       <c r="E28">
         <v>112</v>
       </c>
@@ -1220,6 +1301,9 @@
       <c r="C29">
         <v>-79.94790399999999</v>
       </c>
+      <c r="D29">
+        <v>2.8</v>
+      </c>
       <c r="E29">
         <v>146</v>
       </c>
@@ -1236,6 +1320,9 @@
       </c>
       <c r="C30">
         <v>-79.88598500000001</v>
+      </c>
+      <c r="D30">
+        <v>0.6</v>
       </c>
       <c r="E30">
         <v>33</v>
@@ -1254,6 +1341,9 @@
       <c r="C31">
         <v>-79.932225</v>
       </c>
+      <c r="D31">
+        <v>2.6</v>
+      </c>
       <c r="E31">
         <v>136</v>
       </c>
@@ -1271,6 +1361,9 @@
       <c r="C32">
         <v>-79.79384400000001</v>
       </c>
+      <c r="D32">
+        <v>0.6</v>
+      </c>
       <c r="E32">
         <v>33</v>
       </c>
@@ -1288,6 +1381,9 @@
       <c r="C33">
         <v>-79.80557399999999</v>
       </c>
+      <c r="D33">
+        <v>0.6</v>
+      </c>
       <c r="E33">
         <v>33</v>
       </c>
@@ -1305,6 +1401,9 @@
       <c r="C34">
         <v>-79.907511</v>
       </c>
+      <c r="D34">
+        <v>1.2</v>
+      </c>
       <c r="E34">
         <v>62</v>
       </c>
@@ -1322,6 +1421,9 @@
       <c r="C35">
         <v>-80.28444500000001</v>
       </c>
+      <c r="D35">
+        <v>2.3</v>
+      </c>
       <c r="E35">
         <v>119</v>
       </c>
@@ -1339,6 +1441,9 @@
       <c r="C36">
         <v>-79.866913</v>
       </c>
+      <c r="D36">
+        <v>0.6</v>
+      </c>
       <c r="E36">
         <v>33</v>
       </c>
@@ -1356,6 +1461,9 @@
       <c r="C37">
         <v>-79.723736</v>
       </c>
+      <c r="D37">
+        <v>2.5</v>
+      </c>
       <c r="E37">
         <v>130</v>
       </c>
@@ -1373,6 +1481,9 @@
       <c r="C38">
         <v>-80.216015</v>
       </c>
+      <c r="D38">
+        <v>1.8</v>
+      </c>
       <c r="E38">
         <v>91</v>
       </c>
@@ -1390,6 +1501,9 @@
       <c r="C39">
         <v>-80.023906</v>
       </c>
+      <c r="D39">
+        <v>3.1</v>
+      </c>
       <c r="E39">
         <v>161</v>
       </c>
@@ -1407,6 +1521,9 @@
       <c r="C40">
         <v>-80.243904</v>
       </c>
+      <c r="D40">
+        <v>2.3</v>
+      </c>
       <c r="E40">
         <v>121</v>
       </c>
@@ -1424,6 +1541,9 @@
       <c r="C41">
         <v>-80.106172</v>
       </c>
+      <c r="D41">
+        <v>1.8</v>
+      </c>
       <c r="E41">
         <v>91</v>
       </c>
@@ -1441,6 +1561,9 @@
       <c r="C42">
         <v>-79.796071</v>
       </c>
+      <c r="D42">
+        <v>1.5</v>
+      </c>
       <c r="E42">
         <v>78</v>
       </c>
@@ -1458,6 +1581,9 @@
       <c r="C43">
         <v>-79.842782</v>
       </c>
+      <c r="D43">
+        <v>0.6</v>
+      </c>
       <c r="E43">
         <v>33</v>
       </c>
@@ -1475,6 +1601,9 @@
       <c r="C44">
         <v>-79.866547</v>
       </c>
+      <c r="D44">
+        <v>1.2</v>
+      </c>
       <c r="E44">
         <v>60</v>
       </c>
@@ -1492,6 +1621,9 @@
       <c r="C45">
         <v>-79.812893</v>
       </c>
+      <c r="D45">
+        <v>1.7</v>
+      </c>
       <c r="E45">
         <v>87</v>
       </c>
@@ -1509,6 +1641,9 @@
       <c r="C46">
         <v>-79.922476</v>
       </c>
+      <c r="D46">
+        <v>1.5</v>
+      </c>
       <c r="E46">
         <v>78</v>
       </c>
@@ -1526,6 +1661,9 @@
       <c r="C47">
         <v>-79.761358</v>
       </c>
+      <c r="D47">
+        <v>1.9</v>
+      </c>
       <c r="E47">
         <v>100</v>
       </c>
@@ -1543,6 +1681,9 @@
       <c r="C48">
         <v>-80.149929</v>
       </c>
+      <c r="D48">
+        <v>0.6</v>
+      </c>
       <c r="E48">
         <v>33</v>
       </c>
@@ -1560,6 +1701,9 @@
       <c r="C49">
         <v>-79.67000899999999</v>
       </c>
+      <c r="D49">
+        <v>2.6</v>
+      </c>
       <c r="E49">
         <v>136</v>
       </c>
@@ -1577,6 +1721,9 @@
       <c r="C50">
         <v>-79.72537800000001</v>
       </c>
+      <c r="D50">
+        <v>1.4</v>
+      </c>
       <c r="E50">
         <v>75</v>
       </c>
@@ -1594,6 +1741,9 @@
       <c r="C51">
         <v>-79.725802</v>
       </c>
+      <c r="D51">
+        <v>1.9</v>
+      </c>
       <c r="E51">
         <v>101</v>
       </c>
@@ -1611,6 +1761,9 @@
       <c r="C52">
         <v>-79.80876499999999</v>
       </c>
+      <c r="D52">
+        <v>1.3</v>
+      </c>
       <c r="E52">
         <v>67</v>
       </c>
@@ -1628,6 +1781,9 @@
       <c r="C53">
         <v>-80.187799</v>
       </c>
+      <c r="D53">
+        <v>2.4</v>
+      </c>
       <c r="E53">
         <v>126</v>
       </c>
@@ -1645,6 +1801,9 @@
       <c r="C54">
         <v>-79.83625499999999</v>
       </c>
+      <c r="D54">
+        <v>2.5</v>
+      </c>
       <c r="E54">
         <v>130</v>
       </c>
@@ -1662,6 +1821,9 @@
       <c r="C55">
         <v>-79.77634399999999</v>
       </c>
+      <c r="D55">
+        <v>0.6</v>
+      </c>
       <c r="E55">
         <v>33</v>
       </c>
@@ -1679,6 +1841,9 @@
       <c r="C56">
         <v>-79.950968</v>
       </c>
+      <c r="D56">
+        <v>2.9</v>
+      </c>
       <c r="E56">
         <v>150</v>
       </c>
@@ -1696,6 +1861,9 @@
       <c r="C57">
         <v>-80.067821</v>
       </c>
+      <c r="D57">
+        <v>1.8</v>
+      </c>
       <c r="E57">
         <v>93</v>
       </c>
@@ -1713,6 +1881,9 @@
       <c r="C58">
         <v>-79.975672</v>
       </c>
+      <c r="D58">
+        <v>2.4</v>
+      </c>
       <c r="E58">
         <v>123</v>
       </c>
@@ -1730,6 +1901,9 @@
       <c r="C59">
         <v>-80.06063</v>
       </c>
+      <c r="D59">
+        <v>0.8</v>
+      </c>
       <c r="E59">
         <v>41</v>
       </c>
@@ -1747,6 +1921,9 @@
       <c r="C60">
         <v>-80.09909</v>
       </c>
+      <c r="D60">
+        <v>1.9</v>
+      </c>
       <c r="E60">
         <v>98</v>
       </c>
@@ -1764,6 +1941,9 @@
       <c r="C61">
         <v>-79.913156</v>
       </c>
+      <c r="D61">
+        <v>2.7</v>
+      </c>
       <c r="E61">
         <v>138</v>
       </c>
@@ -1781,6 +1961,9 @@
       <c r="C62">
         <v>-79.928873</v>
       </c>
+      <c r="D62">
+        <v>1.5</v>
+      </c>
       <c r="E62">
         <v>78</v>
       </c>
@@ -1798,6 +1981,9 @@
       <c r="C63">
         <v>-79.899497</v>
       </c>
+      <c r="D63">
+        <v>0.6</v>
+      </c>
       <c r="E63">
         <v>33</v>
       </c>
@@ -1815,6 +2001,9 @@
       <c r="C64">
         <v>-79.96972599999999</v>
       </c>
+      <c r="D64">
+        <v>2.3</v>
+      </c>
       <c r="E64">
         <v>119</v>
       </c>
@@ -1832,6 +2021,9 @@
       <c r="C65">
         <v>-79.984987</v>
       </c>
+      <c r="D65">
+        <v>0.7</v>
+      </c>
       <c r="E65">
         <v>37</v>
       </c>
@@ -1849,6 +2041,9 @@
       <c r="C66">
         <v>-80.01563299999999</v>
       </c>
+      <c r="D66">
+        <v>1.8</v>
+      </c>
       <c r="E66">
         <v>94</v>
       </c>
@@ -1866,6 +2061,9 @@
       <c r="C67">
         <v>-79.990054</v>
       </c>
+      <c r="D67">
+        <v>1.2</v>
+      </c>
       <c r="E67">
         <v>65</v>
       </c>
@@ -1883,6 +2081,9 @@
       <c r="C68">
         <v>-79.955247</v>
       </c>
+      <c r="D68">
+        <v>2.7</v>
+      </c>
       <c r="E68">
         <v>139</v>
       </c>
@@ -1900,6 +2101,9 @@
       <c r="C69">
         <v>-80.013953</v>
       </c>
+      <c r="D69">
+        <v>1.5</v>
+      </c>
       <c r="E69">
         <v>79</v>
       </c>
@@ -1917,6 +2121,9 @@
       <c r="C70">
         <v>-79.912677</v>
       </c>
+      <c r="D70">
+        <v>2.8</v>
+      </c>
       <c r="E70">
         <v>146</v>
       </c>
@@ -1934,6 +2141,9 @@
       <c r="C71">
         <v>-80.03484899999999</v>
       </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
       <c r="E71">
         <v>104</v>
       </c>
@@ -1951,6 +2161,9 @@
       <c r="C72">
         <v>-79.920089</v>
       </c>
+      <c r="D72">
+        <v>3.5</v>
+      </c>
       <c r="E72">
         <v>184</v>
       </c>
@@ -1968,6 +2181,9 @@
       <c r="C73">
         <v>-79.889803</v>
       </c>
+      <c r="D73">
+        <v>1.9</v>
+      </c>
       <c r="E73">
         <v>101</v>
       </c>
@@ -1985,6 +2201,9 @@
       <c r="C74">
         <v>-79.983064</v>
       </c>
+      <c r="D74">
+        <v>0.6</v>
+      </c>
       <c r="E74">
         <v>33</v>
       </c>
@@ -2002,6 +2221,9 @@
       <c r="C75">
         <v>-80.047768</v>
       </c>
+      <c r="D75">
+        <v>2.3</v>
+      </c>
       <c r="E75">
         <v>121</v>
       </c>
@@ -2019,6 +2241,9 @@
       <c r="C76">
         <v>-79.86427</v>
       </c>
+      <c r="D76">
+        <v>1.3</v>
+      </c>
       <c r="E76">
         <v>66</v>
       </c>
@@ -2036,6 +2261,9 @@
       <c r="C77">
         <v>-79.99344499999999</v>
       </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
       <c r="E77">
         <v>260</v>
       </c>
@@ -2053,6 +2281,9 @@
       <c r="C78">
         <v>-79.952226</v>
       </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
       <c r="E78">
         <v>103</v>
       </c>
@@ -2070,6 +2301,9 @@
       <c r="C79">
         <v>-79.944805</v>
       </c>
+      <c r="D79">
+        <v>2.5</v>
+      </c>
       <c r="E79">
         <v>130</v>
       </c>
@@ -2087,6 +2321,9 @@
       <c r="C80">
         <v>-80.113844</v>
       </c>
+      <c r="D80">
+        <v>0.6</v>
+      </c>
       <c r="E80">
         <v>33</v>
       </c>
@@ -2104,6 +2341,9 @@
       <c r="C81">
         <v>-80.013952</v>
       </c>
+      <c r="D81">
+        <v>1.9</v>
+      </c>
       <c r="E81">
         <v>101</v>
       </c>
@@ -2121,6 +2361,9 @@
       <c r="C82">
         <v>-79.970572</v>
       </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
       <c r="E82">
         <v>104</v>
       </c>
@@ -2138,6 +2381,9 @@
       <c r="C83">
         <v>-80.044135</v>
       </c>
+      <c r="D83">
+        <v>3.1</v>
+      </c>
       <c r="E83">
         <v>161</v>
       </c>
@@ -2155,6 +2401,9 @@
       <c r="C84">
         <v>-80.037053</v>
       </c>
+      <c r="D84">
+        <v>2.3</v>
+      </c>
       <c r="E84">
         <v>120</v>
       </c>
@@ -2172,6 +2421,9 @@
       <c r="C85">
         <v>-79.931939</v>
       </c>
+      <c r="D85">
+        <v>4.2</v>
+      </c>
       <c r="E85">
         <v>219</v>
       </c>
@@ -2189,6 +2441,9 @@
       <c r="C86">
         <v>-80.03491699999999</v>
       </c>
+      <c r="D86">
+        <v>1.7</v>
+      </c>
       <c r="E86">
         <v>90</v>
       </c>
@@ -2206,6 +2461,9 @@
       <c r="C87">
         <v>-80.01779500000001</v>
       </c>
+      <c r="D87">
+        <v>2.3</v>
+      </c>
       <c r="E87">
         <v>122</v>
       </c>
@@ -2223,6 +2481,9 @@
       <c r="C88">
         <v>-79.82241999999999</v>
       </c>
+      <c r="D88">
+        <v>1.4</v>
+      </c>
       <c r="E88">
         <v>73</v>
       </c>
@@ -2240,6 +2501,9 @@
       <c r="C89">
         <v>-79.975481</v>
       </c>
+      <c r="D89">
+        <v>2.4</v>
+      </c>
       <c r="E89">
         <v>125</v>
       </c>
@@ -2257,6 +2521,9 @@
       <c r="C90">
         <v>-80.043513</v>
       </c>
+      <c r="D90">
+        <v>2.8</v>
+      </c>
       <c r="E90">
         <v>143</v>
       </c>
@@ -2274,6 +2541,9 @@
       <c r="C91">
         <v>-79.87944299999999</v>
       </c>
+      <c r="D91">
+        <v>3.1</v>
+      </c>
       <c r="E91">
         <v>161</v>
       </c>
@@ -2291,6 +2561,9 @@
       <c r="C92">
         <v>-79.738074</v>
       </c>
+      <c r="D92">
+        <v>2.1</v>
+      </c>
       <c r="E92">
         <v>110</v>
       </c>
@@ -2308,6 +2581,9 @@
       <c r="C93">
         <v>-80.081412</v>
       </c>
+      <c r="D93">
+        <v>2.8</v>
+      </c>
       <c r="E93">
         <v>145</v>
       </c>
@@ -2325,6 +2601,9 @@
       <c r="C94">
         <v>-80.072372</v>
       </c>
+      <c r="D94">
+        <v>2.9</v>
+      </c>
       <c r="E94">
         <v>153</v>
       </c>
@@ -2342,6 +2621,9 @@
       <c r="C95">
         <v>-79.953256</v>
       </c>
+      <c r="D95">
+        <v>0.6</v>
+      </c>
       <c r="E95">
         <v>33</v>
       </c>
@@ -2359,6 +2641,9 @@
       <c r="C96">
         <v>-80.019294</v>
       </c>
+      <c r="D96">
+        <v>0.6</v>
+      </c>
       <c r="E96">
         <v>33</v>
       </c>
@@ -2376,6 +2661,9 @@
       <c r="C97">
         <v>-80.11868200000001</v>
       </c>
+      <c r="D97">
+        <v>3.3</v>
+      </c>
       <c r="E97">
         <v>170</v>
       </c>
@@ -2393,6 +2681,9 @@
       <c r="C98">
         <v>-79.826914</v>
       </c>
+      <c r="D98">
+        <v>0.6</v>
+      </c>
       <c r="E98">
         <v>33</v>
       </c>
@@ -2410,6 +2701,9 @@
       <c r="C99">
         <v>-79.83466799999999</v>
       </c>
+      <c r="D99">
+        <v>0.6</v>
+      </c>
       <c r="E99">
         <v>33</v>
       </c>
@@ -2427,6 +2721,9 @@
       <c r="C100">
         <v>-79.749717</v>
       </c>
+      <c r="D100">
+        <v>0.6</v>
+      </c>
       <c r="E100">
         <v>33</v>
       </c>
@@ -2444,6 +2741,9 @@
       <c r="C101">
         <v>-80.1464</v>
       </c>
+      <c r="D101">
+        <v>3.1</v>
+      </c>
       <c r="E101">
         <v>159</v>
       </c>
@@ -2461,6 +2761,9 @@
       <c r="C102">
         <v>-79.996037</v>
       </c>
+      <c r="D102">
+        <v>2.4</v>
+      </c>
       <c r="E102">
         <v>124</v>
       </c>
@@ -2478,6 +2781,9 @@
       <c r="C103">
         <v>-79.777952</v>
       </c>
+      <c r="D103">
+        <v>1.5</v>
+      </c>
       <c r="E103">
         <v>77</v>
       </c>
@@ -2495,6 +2801,9 @@
       <c r="C104">
         <v>-80.21291600000001</v>
       </c>
+      <c r="D104">
+        <v>0.6</v>
+      </c>
       <c r="E104">
         <v>33</v>
       </c>
@@ -2512,6 +2821,9 @@
       <c r="C105">
         <v>-79.803264</v>
       </c>
+      <c r="D105">
+        <v>1.3</v>
+      </c>
       <c r="E105">
         <v>67</v>
       </c>
@@ -2529,6 +2841,9 @@
       <c r="C106">
         <v>-79.722251</v>
       </c>
+      <c r="D106">
+        <v>2.3</v>
+      </c>
       <c r="E106">
         <v>122</v>
       </c>
@@ -2546,6 +2861,9 @@
       <c r="C107">
         <v>-79.82408599999999</v>
       </c>
+      <c r="D107">
+        <v>0.6</v>
+      </c>
       <c r="E107">
         <v>33</v>
       </c>
@@ -2563,6 +2881,9 @@
       <c r="C108">
         <v>-79.927088</v>
       </c>
+      <c r="D108">
+        <v>2.5</v>
+      </c>
       <c r="E108">
         <v>128</v>
       </c>
@@ -2580,6 +2901,9 @@
       <c r="C109">
         <v>-79.83077</v>
       </c>
+      <c r="D109">
+        <v>1.5</v>
+      </c>
       <c r="E109">
         <v>76</v>
       </c>
@@ -2597,6 +2921,9 @@
       <c r="C110">
         <v>-80.106364</v>
       </c>
+      <c r="D110">
+        <v>0.6</v>
+      </c>
       <c r="E110">
         <v>33</v>
       </c>
@@ -2614,6 +2941,9 @@
       <c r="C111">
         <v>-79.89618</v>
       </c>
+      <c r="D111">
+        <v>0.6</v>
+      </c>
       <c r="E111">
         <v>33</v>
       </c>
@@ -2631,6 +2961,9 @@
       <c r="C112">
         <v>-79.895641</v>
       </c>
+      <c r="D112">
+        <v>1.6</v>
+      </c>
       <c r="E112">
         <v>82</v>
       </c>
@@ -2648,6 +2981,9 @@
       <c r="C113">
         <v>-79.748806</v>
       </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
       <c r="E113">
         <v>104</v>
       </c>
@@ -2665,6 +3001,9 @@
       <c r="C114">
         <v>-80.067058</v>
       </c>
+      <c r="D114">
+        <v>2.9</v>
+      </c>
       <c r="E114">
         <v>153</v>
       </c>
@@ -2681,6 +3020,9 @@
       </c>
       <c r="C115">
         <v>-79.79512</v>
+      </c>
+      <c r="D115">
+        <v>0.6</v>
       </c>
       <c r="E115">
         <v>33</v>

--- a/ZipCodeMedHousingPrice.xlsx
+++ b/ZipCodeMedHousingPrice.xlsx
@@ -762,7 +762,7 @@
         <v>-79.955241</v>
       </c>
       <c r="D2">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>144</v>
@@ -782,7 +782,7 @@
         <v>-80.216424</v>
       </c>
       <c r="D3">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>65</v>
@@ -802,7 +802,7 @@
         <v>-80.18664800000001</v>
       </c>
       <c r="D4">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="E4">
         <v>118</v>
@@ -822,7 +822,7 @@
         <v>-79.87688900000001</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E5">
         <v>33</v>
@@ -842,7 +842,7 @@
         <v>-79.93168799999999</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E6">
         <v>33</v>
@@ -882,7 +882,7 @@
         <v>-79.74042799999999</v>
       </c>
       <c r="D8">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>48</v>
@@ -902,7 +902,7 @@
         <v>-79.862605</v>
       </c>
       <c r="D9">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E9">
         <v>33</v>
@@ -922,7 +922,7 @@
         <v>-80.081101</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>158</v>
@@ -942,7 +942,7 @@
         <v>-80.122354</v>
       </c>
       <c r="D11">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="E11">
         <v>125</v>
@@ -962,7 +962,7 @@
         <v>-79.797067</v>
       </c>
       <c r="D12">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E12">
         <v>33</v>
@@ -982,7 +982,7 @@
         <v>-79.95029599999999</v>
       </c>
       <c r="D13">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E13">
         <v>33</v>
@@ -1002,7 +1002,7 @@
         <v>-80.11420200000001</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>106</v>
@@ -1022,7 +1022,7 @@
         <v>-79.84731499999999</v>
       </c>
       <c r="D15">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>114</v>
@@ -1042,7 +1042,7 @@
         <v>-79.92327299999999</v>
       </c>
       <c r="D16">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E16">
         <v>33</v>
@@ -1102,7 +1102,7 @@
         <v>-79.78955999999999</v>
       </c>
       <c r="D19">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E19">
         <v>33</v>
@@ -1122,7 +1122,7 @@
         <v>-79.78250300000001</v>
       </c>
       <c r="D20">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E20">
         <v>33</v>
@@ -1142,7 +1142,7 @@
         <v>-80.228607</v>
       </c>
       <c r="D21">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>113</v>
@@ -1162,7 +1162,7 @@
         <v>-80.161151</v>
       </c>
       <c r="D22">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E22">
         <v>33</v>
@@ -1182,7 +1182,7 @@
         <v>-79.890602</v>
       </c>
       <c r="D23">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>55</v>
@@ -1202,7 +1202,7 @@
         <v>-79.850162</v>
       </c>
       <c r="D24">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E24">
         <v>33</v>
@@ -1222,7 +1222,7 @@
         <v>-79.807401</v>
       </c>
       <c r="D25">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>49</v>
@@ -1242,7 +1242,7 @@
         <v>-79.837706</v>
       </c>
       <c r="D26">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E26">
         <v>33</v>
@@ -1262,7 +1262,7 @@
         <v>-79.85259000000001</v>
       </c>
       <c r="D27">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>92</v>
@@ -1282,7 +1282,7 @@
         <v>-79.99347299999999</v>
       </c>
       <c r="D28">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>112</v>
@@ -1302,7 +1302,7 @@
         <v>-79.94790399999999</v>
       </c>
       <c r="D29">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>146</v>
@@ -1322,7 +1322,7 @@
         <v>-79.88598500000001</v>
       </c>
       <c r="D30">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E30">
         <v>33</v>
@@ -1342,7 +1342,7 @@
         <v>-79.932225</v>
       </c>
       <c r="D31">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="E31">
         <v>136</v>
@@ -1362,7 +1362,7 @@
         <v>-79.79384400000001</v>
       </c>
       <c r="D32">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E32">
         <v>33</v>
@@ -1382,7 +1382,7 @@
         <v>-79.80557399999999</v>
       </c>
       <c r="D33">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E33">
         <v>33</v>
@@ -1402,7 +1402,7 @@
         <v>-79.907511</v>
       </c>
       <c r="D34">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>62</v>
@@ -1422,7 +1422,7 @@
         <v>-80.28444500000001</v>
       </c>
       <c r="D35">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="E35">
         <v>119</v>
@@ -1442,7 +1442,7 @@
         <v>-79.866913</v>
       </c>
       <c r="D36">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E36">
         <v>33</v>
@@ -1482,7 +1482,7 @@
         <v>-80.216015</v>
       </c>
       <c r="D38">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>91</v>
@@ -1502,7 +1502,7 @@
         <v>-80.023906</v>
       </c>
       <c r="D39">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>161</v>
@@ -1522,7 +1522,7 @@
         <v>-80.243904</v>
       </c>
       <c r="D40">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="E40">
         <v>121</v>
@@ -1542,7 +1542,7 @@
         <v>-80.106172</v>
       </c>
       <c r="D41">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>91</v>
@@ -1562,7 +1562,7 @@
         <v>-79.796071</v>
       </c>
       <c r="D42">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E42">
         <v>78</v>
@@ -1582,7 +1582,7 @@
         <v>-79.842782</v>
       </c>
       <c r="D43">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E43">
         <v>33</v>
@@ -1602,7 +1602,7 @@
         <v>-79.866547</v>
       </c>
       <c r="D44">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>60</v>
@@ -1622,7 +1622,7 @@
         <v>-79.812893</v>
       </c>
       <c r="D45">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="E45">
         <v>87</v>
@@ -1642,7 +1642,7 @@
         <v>-79.922476</v>
       </c>
       <c r="D46">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E46">
         <v>78</v>
@@ -1662,7 +1662,7 @@
         <v>-79.761358</v>
       </c>
       <c r="D47">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -1682,7 +1682,7 @@
         <v>-80.149929</v>
       </c>
       <c r="D48">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E48">
         <v>33</v>
@@ -1702,7 +1702,7 @@
         <v>-79.67000899999999</v>
       </c>
       <c r="D49">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="E49">
         <v>136</v>
@@ -1722,7 +1722,7 @@
         <v>-79.72537800000001</v>
       </c>
       <c r="D50">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="E50">
         <v>75</v>
@@ -1742,7 +1742,7 @@
         <v>-79.725802</v>
       </c>
       <c r="D51">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>101</v>
@@ -1762,7 +1762,7 @@
         <v>-79.80876499999999</v>
       </c>
       <c r="D52">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="E52">
         <v>67</v>
@@ -1782,7 +1782,7 @@
         <v>-80.187799</v>
       </c>
       <c r="D53">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="E53">
         <v>126</v>
@@ -1822,7 +1822,7 @@
         <v>-79.77634399999999</v>
       </c>
       <c r="D55">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E55">
         <v>33</v>
@@ -1842,7 +1842,7 @@
         <v>-79.950968</v>
       </c>
       <c r="D56">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>150</v>
@@ -1862,7 +1862,7 @@
         <v>-80.067821</v>
       </c>
       <c r="D57">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="E57">
         <v>93</v>
@@ -1882,7 +1882,7 @@
         <v>-79.975672</v>
       </c>
       <c r="D58">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="E58">
         <v>123</v>
@@ -1902,7 +1902,7 @@
         <v>-80.06063</v>
       </c>
       <c r="D59">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="E59">
         <v>41</v>
@@ -1922,7 +1922,7 @@
         <v>-80.09909</v>
       </c>
       <c r="D60">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <v>98</v>
@@ -1942,7 +1942,7 @@
         <v>-79.913156</v>
       </c>
       <c r="D61">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="E61">
         <v>138</v>
@@ -1962,7 +1962,7 @@
         <v>-79.928873</v>
       </c>
       <c r="D62">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E62">
         <v>78</v>
@@ -1982,7 +1982,7 @@
         <v>-79.899497</v>
       </c>
       <c r="D63">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E63">
         <v>33</v>
@@ -2002,7 +2002,7 @@
         <v>-79.96972599999999</v>
       </c>
       <c r="D64">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="E64">
         <v>119</v>
@@ -2022,7 +2022,7 @@
         <v>-79.984987</v>
       </c>
       <c r="D65">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="E65">
         <v>37</v>
@@ -2042,7 +2042,7 @@
         <v>-80.01563299999999</v>
       </c>
       <c r="D66">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>94</v>
@@ -2062,7 +2062,7 @@
         <v>-79.990054</v>
       </c>
       <c r="D67">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="E67">
         <v>65</v>
@@ -2082,7 +2082,7 @@
         <v>-79.955247</v>
       </c>
       <c r="D68">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="E68">
         <v>139</v>
@@ -2102,7 +2102,7 @@
         <v>-80.013953</v>
       </c>
       <c r="D69">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E69">
         <v>79</v>
@@ -2122,7 +2122,7 @@
         <v>-79.912677</v>
       </c>
       <c r="D70">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <v>146</v>
@@ -2142,7 +2142,7 @@
         <v>-80.03484899999999</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71">
         <v>104</v>
@@ -2162,7 +2162,7 @@
         <v>-79.920089</v>
       </c>
       <c r="D72">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="E72">
         <v>184</v>
@@ -2182,7 +2182,7 @@
         <v>-79.889803</v>
       </c>
       <c r="D73">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="E73">
         <v>101</v>
@@ -2202,7 +2202,7 @@
         <v>-79.983064</v>
       </c>
       <c r="D74">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E74">
         <v>33</v>
@@ -2222,7 +2222,7 @@
         <v>-80.047768</v>
       </c>
       <c r="D75">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="E75">
         <v>121</v>
@@ -2242,7 +2242,7 @@
         <v>-79.86427</v>
       </c>
       <c r="D76">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="E76">
         <v>66</v>
@@ -2262,7 +2262,7 @@
         <v>-79.99344499999999</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>260</v>
@@ -2282,7 +2282,7 @@
         <v>-79.952226</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E78">
         <v>103</v>
@@ -2322,7 +2322,7 @@
         <v>-80.113844</v>
       </c>
       <c r="D80">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E80">
         <v>33</v>
@@ -2342,7 +2342,7 @@
         <v>-80.013952</v>
       </c>
       <c r="D81">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <v>101</v>
@@ -2362,7 +2362,7 @@
         <v>-79.970572</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <v>104</v>
@@ -2382,7 +2382,7 @@
         <v>-80.044135</v>
       </c>
       <c r="D83">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>161</v>
@@ -2402,7 +2402,7 @@
         <v>-80.037053</v>
       </c>
       <c r="D84">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="E84">
         <v>120</v>
@@ -2422,7 +2422,7 @@
         <v>-79.931939</v>
       </c>
       <c r="D85">
-        <v>4.2</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E85">
         <v>219</v>
@@ -2442,7 +2442,7 @@
         <v>-80.03491699999999</v>
       </c>
       <c r="D86">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="E86">
         <v>90</v>
@@ -2462,7 +2462,7 @@
         <v>-80.01779500000001</v>
       </c>
       <c r="D87">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="E87">
         <v>122</v>
@@ -2482,7 +2482,7 @@
         <v>-79.82241999999999</v>
       </c>
       <c r="D88">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="E88">
         <v>73</v>
@@ -2502,7 +2502,7 @@
         <v>-79.975481</v>
       </c>
       <c r="D89">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="E89">
         <v>125</v>
@@ -2522,7 +2522,7 @@
         <v>-80.043513</v>
       </c>
       <c r="D90">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="E90">
         <v>143</v>
@@ -2542,7 +2542,7 @@
         <v>-79.87944299999999</v>
       </c>
       <c r="D91">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>161</v>
@@ -2562,7 +2562,7 @@
         <v>-79.738074</v>
       </c>
       <c r="D92">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="E92">
         <v>110</v>
@@ -2582,7 +2582,7 @@
         <v>-80.081412</v>
       </c>
       <c r="D93">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="E93">
         <v>145</v>
@@ -2602,7 +2602,7 @@
         <v>-80.072372</v>
       </c>
       <c r="D94">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="E94">
         <v>153</v>
@@ -2622,7 +2622,7 @@
         <v>-79.953256</v>
       </c>
       <c r="D95">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E95">
         <v>33</v>
@@ -2642,7 +2642,7 @@
         <v>-80.019294</v>
       </c>
       <c r="D96">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E96">
         <v>33</v>
@@ -2662,7 +2662,7 @@
         <v>-80.11868200000001</v>
       </c>
       <c r="D97">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="E97">
         <v>170</v>
@@ -2682,7 +2682,7 @@
         <v>-79.826914</v>
       </c>
       <c r="D98">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E98">
         <v>33</v>
@@ -2702,7 +2702,7 @@
         <v>-79.83466799999999</v>
       </c>
       <c r="D99">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E99">
         <v>33</v>
@@ -2722,7 +2722,7 @@
         <v>-79.749717</v>
       </c>
       <c r="D100">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E100">
         <v>33</v>
@@ -2742,7 +2742,7 @@
         <v>-80.1464</v>
       </c>
       <c r="D101">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="E101">
         <v>159</v>
@@ -2762,7 +2762,7 @@
         <v>-79.996037</v>
       </c>
       <c r="D102">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="E102">
         <v>124</v>
@@ -2782,7 +2782,7 @@
         <v>-79.777952</v>
       </c>
       <c r="D103">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E103">
         <v>77</v>
@@ -2802,7 +2802,7 @@
         <v>-80.21291600000001</v>
       </c>
       <c r="D104">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E104">
         <v>33</v>
@@ -2822,7 +2822,7 @@
         <v>-79.803264</v>
       </c>
       <c r="D105">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="E105">
         <v>67</v>
@@ -2842,7 +2842,7 @@
         <v>-79.722251</v>
       </c>
       <c r="D106">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="E106">
         <v>122</v>
@@ -2862,7 +2862,7 @@
         <v>-79.82408599999999</v>
       </c>
       <c r="D107">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E107">
         <v>33</v>
@@ -2902,7 +2902,7 @@
         <v>-79.83077</v>
       </c>
       <c r="D109">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E109">
         <v>76</v>
@@ -2922,7 +2922,7 @@
         <v>-80.106364</v>
       </c>
       <c r="D110">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E110">
         <v>33</v>
@@ -2942,7 +2942,7 @@
         <v>-79.89618</v>
       </c>
       <c r="D111">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E111">
         <v>33</v>
@@ -2962,7 +2962,7 @@
         <v>-79.895641</v>
       </c>
       <c r="D112">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="E112">
         <v>82</v>
@@ -2982,7 +2982,7 @@
         <v>-79.748806</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113">
         <v>104</v>
@@ -3002,7 +3002,7 @@
         <v>-80.067058</v>
       </c>
       <c r="D114">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="E114">
         <v>153</v>
@@ -3022,7 +3022,7 @@
         <v>-79.79512</v>
       </c>
       <c r="D115">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="E115">
         <v>33</v>
